--- a/05_Win32Api/007 通用控件 WM_NOTIFY.xlsx
+++ b/05_Win32Api/007 通用控件 WM_NOTIFY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59A24A-7DB6-4797-85B6-293EC29DE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB7088-8230-47B6-8775-B8964F6417A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="182">
   <si>
     <t>1、标准控件与通用控件</t>
   </si>
@@ -498,6 +498,87 @@
   <si>
     <t>3、WM_NOTIFY消息类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_PTR CALLBACK DialogProc(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    HWND handDlg,  // handle to dialog box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT uMsg,     // message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WPARAM wParam, // first message parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LPARAM lParam  // second message parameter</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    handDlgMain = handDlg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch (uMsg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    case WM_INITDIALOG:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        InitProcessList(handDlg);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        InitModuleList(handDlg);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return TRUE;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    case WM_COMMAND:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch (LOWORD(wParam))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        case IDCANCEL:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            EndDialog(handDlg,0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return TRUE;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    case WM_NOTIFY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NMCLICK* pNMHDR = (NMCLICK*)lParam;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (LOWORD(wParam) == IDC_LIST_PROCESS &amp;&amp; pNMHDR-&gt;hdr.code == NM_CLICK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            InsertModuleItem(GetDlgItem(handDlg, IDC_LIST_PROCESS));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return FALSE;</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1189,7 @@
   </sheetPr>
   <dimension ref="B4:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2894,15 +2975,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B3:S35"/>
+  <dimension ref="B3:T48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
@@ -2918,7 +2999,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -2929,7 +3010,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
         <v>52</v>
@@ -2952,7 +3033,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2971,7 +3052,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
         <v>91</v>
@@ -2994,7 +3075,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3013,7 +3094,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
         <v>88</v>
@@ -3036,7 +3117,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -3059,7 +3140,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>54</v>
@@ -3071,7 +3152,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>55</v>
@@ -3083,7 +3164,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
         <v>56</v>
@@ -3095,7 +3176,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3105,7 +3186,21 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
@@ -3115,8 +3210,20 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3124,8 +3231,20 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3135,79 +3254,479 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>71</v>
       </c>
+      <c r="K35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K36" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K37" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K39" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K47" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
